--- a/spec/fixtures/globalize.xlsx
+++ b/spec/fixtures/globalize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="680" windowWidth="25360" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,110 +19,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cn_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>cn_description</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
   <si>
     <t>product_tags</t>
   </si>
   <si>
-    <t>meta_title</t>
-  </si>
-  <si>
-    <t>cn_meta_title</t>
-  </si>
-  <si>
-    <t>meta_description</t>
-  </si>
-  <si>
-    <t>cn_meta_description</t>
-  </si>
-  <si>
-    <t>meta_keywords</t>
-  </si>
-  <si>
-    <t>vendor</t>
-  </si>
-  <si>
-    <t>option_type</t>
-  </si>
-  <si>
-    <t>spree_property</t>
-  </si>
-  <si>
-    <t>product_property</t>
-  </si>
-  <si>
-    <t>product_taxons</t>
-  </si>
-  <si>
-    <t>Daves Quilling Cards</t>
-  </si>
-  <si>
-    <t>爱的礼物（小号）</t>
-  </si>
-  <si>
-    <t>Daves Quilling Cards Rooted in Vietnam each artist is assigned to a single design</t>
-  </si>
-  <si>
-    <t>表达爱的方式有很多，写下你心中的爱，写给你的情人</t>
-  </si>
-  <si>
-    <t>Small Love Cards from Quilling Card</t>
-  </si>
-  <si>
-    <t>quilling-card</t>
-  </si>
-  <si>
-    <t>recycled quilling cards</t>
-  </si>
-  <si>
-    <t>cards paper</t>
-  </si>
-  <si>
-    <t>the squirrelz</t>
-  </si>
-  <si>
-    <t>Graphic</t>
-  </si>
-  <si>
-    <t>Greeting Cart</t>
-  </si>
-  <si>
-    <t>The Taxon</t>
-  </si>
-  <si>
-    <t>Daves Other Cards</t>
-  </si>
-  <si>
-    <t>Daves other Cards Rooted in Vietnam each artist is assigned to a single design</t>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>name_cn</t>
+  </si>
+  <si>
+    <t>vendors</t>
+  </si>
+  <si>
+    <t>category_collection</t>
+  </si>
+  <si>
+    <t>category_type</t>
+  </si>
+  <si>
+    <t>property_style</t>
+  </si>
+  <si>
+    <t>property_gender</t>
+  </si>
+  <si>
+    <t>property_material</t>
+  </si>
+  <si>
+    <t>property_dimensions</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weight_units</t>
+  </si>
+  <si>
+    <t>description_cn</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>retail_price</t>
+  </si>
+  <si>
+    <t>Gabilu</t>
+  </si>
+  <si>
+    <t>Upcycled</t>
+  </si>
+  <si>
+    <t>Clutch &amp; Purse</t>
+  </si>
+  <si>
+    <t>Weaved, Candy wrapping</t>
+  </si>
+  <si>
+    <t>Misprinted/test pacakging wrapping.  12cm x 25 cm</t>
+  </si>
+  <si>
+    <t>Multi/red</t>
+  </si>
+  <si>
+    <t>12 x 25</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico with misprinting candy packaging</t>
+  </si>
+  <si>
+    <t>Multi/blue</t>
+  </si>
+  <si>
+    <t>Weaved, Salted cracker</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico with misprinting cracker packaging</t>
+  </si>
+  <si>
+    <t>Weaved, Barcode</t>
+  </si>
+  <si>
+    <t>Black/White</t>
+  </si>
+  <si>
+    <t>Weaved, Hearts</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico with misprinting Ice cream packaging</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Weaved, Chocolate</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico with misprinting chocolate packaging</t>
+  </si>
+  <si>
+    <t>Weaved, Newspaper</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico with old newspapers</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Leather belt with resin flower buckle</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Hand made in Mexico</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>skurl-slug</t>
+  </si>
+  <si>
+    <t>stock_items_count</t>
+  </si>
+  <si>
+    <t>Wallets and Bags</t>
+  </si>
+  <si>
+    <t>option_color</t>
+  </si>
+  <si>
+    <t>option_size</t>
+  </si>
+  <si>
+    <t>brand_en</t>
+  </si>
+  <si>
+    <t>brand_cn</t>
+  </si>
+  <si>
+    <t>squirrelz_sku</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>skurl-other-slug</t>
+  </si>
+  <si>
+    <t>Wallets-and-Bags</t>
+  </si>
+  <si>
+    <t>category_brand</t>
+  </si>
+  <si>
+    <t>meta_description_cn</t>
+  </si>
+  <si>
+    <t>meta_title_en</t>
+  </si>
+  <si>
+    <t>meta_description_en</t>
+  </si>
+  <si>
+    <t>meta_title_cn</t>
+  </si>
+  <si>
+    <t>sub_category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -137,16 +241,58 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,23 +300,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,158 +821,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="24" max="24" width="31" customWidth="1"/>
+    <col min="25" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="17" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" ht="15" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AD9" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="AD11" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="12">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
+      <c r="AD12" s="12">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="30">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spec/fixtures/globalize.xlsx
+++ b/spec/fixtures/globalize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="680" windowWidth="25360" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="4200" windowWidth="25360" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>product_tags</t>
   </si>
@@ -63,9 +63,6 @@
     <t>description_cn</t>
   </si>
   <si>
-    <t>description_en</t>
-  </si>
-  <si>
     <t>retail_price</t>
   </si>
   <si>
@@ -90,81 +87,27 @@
     <t>12 x 25</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Hand made in Mexico with misprinting candy packaging</t>
-  </si>
-  <si>
     <t>Multi/blue</t>
   </si>
   <si>
-    <t>Weaved, Salted cracker</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Hand made in Mexico with misprinting cracker packaging</t>
-  </si>
-  <si>
-    <t>Weaved, Barcode</t>
-  </si>
-  <si>
-    <t>Black/White</t>
-  </si>
-  <si>
     <t>Weaved, Hearts</t>
   </si>
   <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Hand made in Mexico with misprinting Ice cream packaging</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>Weaved, Chocolate</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Hand made in Mexico with misprinting chocolate packaging</t>
-  </si>
-  <si>
-    <t>Weaved, Newspaper</t>
-  </si>
-  <si>
     <t>Multi</t>
   </si>
   <si>
-    <t>Hand made in Mexico with old newspapers</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>Flower</t>
-  </si>
-  <si>
-    <t>Leather belt with resin flower buckle</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Hand made in Mexico</t>
-  </si>
-  <si>
     <t>gm</t>
   </si>
   <si>
@@ -198,9 +141,6 @@
     <t>skurl-other-slug</t>
   </si>
   <si>
-    <t>Wallets-and-Bags</t>
-  </si>
-  <si>
     <t>category_brand</t>
   </si>
   <si>
@@ -217,13 +157,25 @@
   </si>
   <si>
     <t>sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product1 </t>
+  </si>
+  <si>
+    <t>表达爱的方式有很多，写下你心中的爱，写给你的情人，写给你的亲人，写给远方的爱人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love comes in all shapes, sizes and colors, and the Quilling Card love cards are no different. </t>
+  </si>
+  <si>
+    <t>Test Product-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -277,6 +229,10 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Libian SC Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -287,12 +243,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -346,8 +302,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,8 +354,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,47 +378,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -472,6 +445,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -492,6 +466,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -839,209 +814,198 @@
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="25.1640625" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="24" max="24" width="31" customWidth="1"/>
-    <col min="25" max="28" width="22.6640625" style="1" customWidth="1"/>
+    <col min="24" max="28" width="22.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="17" customWidth="1"/>
     <col min="30" max="30" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>25</v>
+      <c r="T3" s="6"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC3" s="12">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="9">
         <v>6</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="9">
         <v>350</v>
       </c>
     </row>
@@ -1049,75 +1013,39 @@
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="12">
+      <c r="R4" s="19"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="9">
         <v>2</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="9">
         <v>350</v>
       </c>
     </row>
@@ -1125,75 +1053,67 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="R5" s="19"/>
       <c r="S5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="12">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="9">
         <v>350</v>
       </c>
     </row>
@@ -1201,75 +1121,39 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="12">
+      <c r="R6" s="19"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="22">
         <v>350</v>
       </c>
     </row>
@@ -1277,75 +1161,39 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="12">
+        <v>26</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="22">
         <v>350</v>
       </c>
     </row>
@@ -1353,390 +1201,44 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC8" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="12">
+        <v>27</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9">
         <v>4</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD8" s="22">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -1753,6 +1255,20 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spec/fixtures/globalize.xlsx
+++ b/spec/fixtures/globalize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>product_tags</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Test Product-2</t>
+  </si>
+  <si>
+    <t>爱的礼物（小号）</t>
+  </si>
+  <si>
+    <t>爱的礼物</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -952,7 +958,9 @@
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -988,10 +996,10 @@
       <c r="T3" s="6"/>
       <c r="U3" s="18"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="21" t="s">
+      <c r="W3" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="X3" s="21"/>
       <c r="Y3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1058,7 +1066,9 @@
       <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
@@ -1094,10 +1104,10 @@
       <c r="T5" s="6"/>
       <c r="U5" s="18"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="X5" s="21"/>
       <c r="Y5" s="3" t="s">
         <v>30</v>
       </c>
